--- a/アカウント更新・削除_結合テスト.xlsx
+++ b/アカウント更新・削除_結合テスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kudo1\OneDrive\デスクトップ\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F8FCB8-F725-4146-BBCF-C72DF082692F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{70F8FCB8-F725-4146-BBCF-C72DF082692F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4304676-008A-4990-8760-858C7A619800}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="4" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet6" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="243">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -1283,25 +1283,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「住所（都道府県）」の該当アカウント情報がテキスト表示されているか</t>
-    <rPh sb="1" eb="3">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「住所（市区町村）」の該当アカウント情報がテキスト表示されているか</t>
     <rPh sb="1" eb="3">
       <t>ジュウショ</t>
@@ -1366,22 +1347,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.アカウント一覧画面の「削除」ボタンを押す</t>
-    <rPh sb="7" eb="9">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント削除画面に遷移するか</t>
     <rPh sb="5" eb="7">
       <t>サクジョ</t>
@@ -1395,45 +1360,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「メールアドレス」の表示</t>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.アカウント削除確認画面に遷移</t>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.アカウント削除画面の「確認する」ボタンを押す</t>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント削除確認画面に遷移</t>
     <rPh sb="5" eb="7">
       <t>サクジョ</t>
@@ -1450,41 +1376,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>該当アカウント情報が隠れた状態で受け渡されているか</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ワタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当のアカウント情報が表示されていない</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DB更新時にエラーが発生する場合は、画面に「エラーが発生したためアカウント削除できません。」と赤字で表示する。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1571,19 +1462,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>該当アカウントの「住所（都道府県）」の表示</t>
-    <rPh sb="9" eb="11">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>該当アカウントの「住所（市区町村）」の表示</t>
     <rPh sb="9" eb="11">
       <t>ジュウショ</t>
@@ -2767,12 +2645,6 @@
     <t>「プロフィール画像が変更されました。」</t>
   </si>
   <si>
-    <t>「名前（名）が変更されました。」</t>
-  </si>
-  <si>
-    <t>「ニックネームが変更されました。」</t>
-  </si>
-  <si>
     <t>「メールアドレスが変更されました。」</t>
   </si>
   <si>
@@ -2813,16 +2685,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.ログインしない状態で、album-info.phpをURLに直打ちする</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>チョクウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>login.phpにリダイレクト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3296,6 +3158,224 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「パスワード」は「安全上表示されません」が表示されているか</t>
+    <rPh sb="9" eb="11">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「安全上表示されません」の表示</t>
+    <rPh sb="1" eb="3">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ユーザー情報が見つかりません」の表示</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除されたユーザーでアクセスした場合、「ユーザー情報が見つかりません」が表示されるか</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アカウント削除画面の「削除」を押す</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.アカウント削除完了画面の「アカウントへ」を押す</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、account-delete.phpをURLに直打ちする</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>チョクウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、account-delete-complete.phpをURLに直打ちする</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>チョクウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.アカウント削除完了画面に遷移する</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント削除完了後、DBで確認</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「名前（姓）が変更されました。」</t>
+    <rPh sb="4" eb="5">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ニックネームが変更されました。」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「名前（名）が変更されました。」</t>
+    <rPh sb="1" eb="3">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、mypage-update-complete.phpをURLに直打ちする</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>チョクウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、mypage.phpをURLに直打ちする</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>チョクウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移が制御され、空欄部分に「このフィールドに入力してください」の</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3385,7 +3465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3408,6 +3488,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5033,7 +5116,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I43" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I45" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FE3B6433-B2D2-49AE-8398-E424440CC4D9}" name="項目番号" dataDxfId="52"/>
     <tableColumn id="2" xr3:uid="{94A9CBD6-F56A-491E-8DAF-ACBE970046E3}" name="大項目" dataDxfId="51"/>
@@ -5050,7 +5133,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A44:I48" headerRowCount="0" totalsRowShown="0" headerRowDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A46:I51" headerRowCount="0" totalsRowShown="0" headerRowDxfId="43">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号" headerRowDxfId="42" dataDxfId="41"/>
     <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="40"/>
@@ -5067,7 +5150,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85F965DE-BFE9-44A1-8203-9C97445D195F}" name="テーブル22" displayName="テーブル22" ref="A7:I19" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85F965DE-BFE9-44A1-8203-9C97445D195F}" name="テーブル22" displayName="テーブル22" ref="A7:I14" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{84BC7C03-E61B-4DB8-B7AE-138618AEC460}" name="項目番号" dataDxfId="32"/>
     <tableColumn id="2" xr3:uid="{AC644582-1705-406E-A11E-3C58BE1ECDE0}" name="大項目" dataDxfId="31"/>
@@ -5084,7 +5167,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8885EC80-C68E-49F5-AA88-0D5EBA1B9A5F}" name="テーブル36" displayName="テーブル36" ref="A20:I24" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8885EC80-C68E-49F5-AA88-0D5EBA1B9A5F}" name="テーブル36" displayName="テーブル36" ref="A15:I19" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{44B60D83-9DED-4A84-80F6-304225BEA51A}" name="項目番号" headerRowDxfId="22" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{60366696-D3C5-417F-8E0F-725BE34DF397}" name="大項目" headerRowDxfId="20"/>
@@ -5419,8 +5502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A77DA8-5F4F-404D-8533-BC9C291EE38F}">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD62"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5431,7 +5514,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -5444,7 +5527,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5471,12 +5554,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45826</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5517,16 +5600,16 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G8" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -5539,7 +5622,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -5566,16 +5649,16 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G11" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>73</v>
@@ -5588,7 +5671,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -5618,13 +5701,13 @@
         <v>82</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G14" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>73</v>
@@ -5637,7 +5720,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -5667,13 +5750,13 @@
         <v>83</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G17" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>73</v>
@@ -5686,7 +5769,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -5713,16 +5796,16 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G20" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>73</v>
@@ -5735,7 +5818,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -5765,13 +5848,13 @@
         <v>84</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G23" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>73</v>
@@ -5784,7 +5867,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
@@ -5811,16 +5894,16 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G26" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>73</v>
@@ -5833,7 +5916,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="4"/>
@@ -5863,13 +5946,13 @@
         <v>85</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G29" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>73</v>
@@ -5882,7 +5965,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -5912,13 +5995,13 @@
         <v>86</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G32" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>73</v>
@@ -5931,7 +6014,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="4"/>
@@ -5958,16 +6041,16 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G35" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>73</v>
@@ -5980,7 +6063,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
@@ -6007,16 +6090,16 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G38" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>73</v>
@@ -6029,7 +6112,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="4"/>
@@ -6056,16 +6139,16 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G41" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>73</v>
@@ -6076,12 +6159,9 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="2" t="e">
-        <f>B49:F60</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="4"/>
@@ -6108,16 +6188,16 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G44" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>73</v>
@@ -6130,7 +6210,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="4"/>
@@ -6157,16 +6237,16 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G47" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>73</v>
@@ -6185,20 +6265,28 @@
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="2">
+        <v>15</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="G49" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6207,7 +6295,7 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -6215,18 +6303,28 @@
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="2">
+        <v>16</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G51" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6235,28 +6333,38 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F52" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="2">
+        <v>17</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="G53" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6265,7 +6373,7 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -6273,20 +6381,28 @@
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="2">
+        <v>18</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="G55" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6295,7 +6411,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -6303,20 +6419,28 @@
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+      <c r="A57" s="2">
+        <v>19</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E57" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="G57" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6331,20 +6455,28 @@
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="A59" s="2">
+        <v>20</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="G59" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6360,23 +6492,23 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G61" s="4">
-        <v>45991</v>
+        <v>193</v>
+      </c>
+      <c r="G61" s="3">
+        <v>46002</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>73</v>
@@ -6412,7 +6544,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD39"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6423,7 +6555,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -6436,7 +6568,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6463,12 +6595,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45826</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6501,22 +6633,24 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G8" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -6529,7 +6663,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -6538,23 +6672,23 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G10" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>73</v>
@@ -6567,7 +6701,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -6576,23 +6710,23 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="G12" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>73</v>
@@ -6605,7 +6739,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -6614,23 +6748,23 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="G14" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>73</v>
@@ -6643,7 +6777,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -6652,23 +6786,23 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="G16" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>73</v>
@@ -6681,7 +6815,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -6690,23 +6824,23 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="G18" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>73</v>
@@ -6719,7 +6853,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="4"/>
@@ -6728,23 +6862,23 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="G20" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>73</v>
@@ -6757,7 +6891,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="4"/>
@@ -6766,23 +6900,23 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G22" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>73</v>
@@ -6795,7 +6929,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -6804,23 +6938,23 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G24" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>73</v>
@@ -6833,7 +6967,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -6842,23 +6976,23 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G26" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>73</v>
@@ -6871,7 +7005,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -6880,23 +7014,23 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="G28" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>73</v>
@@ -6909,7 +7043,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -6918,23 +7052,23 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G30" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>73</v>
@@ -6947,7 +7081,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="4"/>
@@ -6956,23 +7090,23 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="G32" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>73</v>
@@ -6985,7 +7119,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="4"/>
@@ -7001,16 +7135,16 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G34" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>73</v>
@@ -7023,7 +7157,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -7039,16 +7173,16 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="G36" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>73</v>
@@ -7061,7 +7195,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -7070,23 +7204,23 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G38" s="4">
-        <v>45991</v>
+        <v>193</v>
+      </c>
+      <c r="G38" s="3">
+        <v>46002</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>73</v>
@@ -7122,7 +7256,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7133,7 +7267,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -7146,7 +7280,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7173,12 +7307,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45826</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7219,16 +7353,16 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="G11" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>73</v>
@@ -7241,7 +7375,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -7257,16 +7391,16 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G13" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>73</v>
@@ -7279,7 +7413,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -7295,16 +7429,16 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="G15" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>73</v>
@@ -7317,7 +7451,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -7333,16 +7467,16 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="G17" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>73</v>
@@ -7355,7 +7489,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -7371,16 +7505,16 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="G19" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>73</v>
@@ -7393,7 +7527,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -7409,16 +7543,16 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G21" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>73</v>
@@ -7431,7 +7565,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -7447,16 +7581,16 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G23" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>73</v>
@@ -7469,7 +7603,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -7485,16 +7619,16 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="G25" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>73</v>
@@ -7507,7 +7641,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -7523,16 +7657,16 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G27" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>73</v>
@@ -7545,7 +7679,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -7561,16 +7695,16 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="G29" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>73</v>
@@ -7583,7 +7717,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -7599,16 +7733,16 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="G31" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>73</v>
@@ -7621,7 +7755,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -7637,16 +7771,16 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="G33" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>73</v>
@@ -7659,7 +7793,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -7675,16 +7809,16 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G35" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>73</v>
@@ -7716,10 +7850,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD45"/>
+    <sheetView topLeftCell="A16" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7730,7 +7864,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -7743,7 +7877,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7770,12 +7904,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45826</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7816,16 +7950,16 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>81</v>
       </c>
       <c r="G8" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -7865,16 +7999,16 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G11" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>73</v>
@@ -7917,13 +8051,13 @@
         <v>82</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G14" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>73</v>
@@ -7966,13 +8100,13 @@
         <v>83</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G17" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>73</v>
@@ -8012,16 +8146,16 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G20" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>73</v>
@@ -8064,13 +8198,13 @@
         <v>84</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G23" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>73</v>
@@ -8102,7 +8236,7 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2">
+      <c r="A26" s="8">
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -8110,16 +8244,16 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>85</v>
+        <v>226</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>107</v>
+        <v>227</v>
       </c>
       <c r="G26" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>73</v>
@@ -8127,7 +8261,7 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -8135,44 +8269,46 @@
         <v>80</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="G27" s="4"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="2">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2">
-        <v>8</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G29" s="3">
-        <v>45827</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8180,48 +8316,48 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="2">
+        <v>9</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2">
-        <v>9</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G32" s="3">
-        <v>45827</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8229,48 +8365,48 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="4"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="2">
+        <v>10</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2">
-        <v>10</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G35" s="3">
-        <v>45827</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8278,48 +8414,48 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="2">
+        <v>11</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2">
-        <v>11</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G38" s="3">
-        <v>45827</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8327,48 +8463,48 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="4"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="2">
+        <v>12</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="2">
-        <v>12</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G41" s="3">
-        <v>45827</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8376,48 +8512,48 @@
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="4"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="2">
+        <v>13</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="2">
-        <v>3</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
-        <v>202</v>
-      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G44" s="4">
-        <v>45991</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8427,9 +8563,132 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
+      <c r="G45" s="4"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="2">
+        <v>14</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G46" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="2">
+        <v>15</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="8">
+        <v>16</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G51" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8446,10 +8705,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE28EAC-04E1-4652-A59F-FBA9EA2DB96E}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8460,7 +8719,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -8473,7 +8732,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8505,7 +8764,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8546,16 +8805,16 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="G8" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -8568,7 +8827,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>96</v>
+        <v>230</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -8580,8 +8839,8 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>95</v>
+      <c r="E10" t="s">
+        <v>234</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -8597,16 +8856,16 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>92</v>
+        <v>235</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="G11" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>73</v>
@@ -8618,50 +8877,48 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="E13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A14" s="8"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="3">
-        <v>45827</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8670,7 +8927,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>113</v>
+        <v>231</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -8678,102 +8935,40 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="2">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="E16" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2">
-        <v>4</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>235</v>
-      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G17" s="4"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2">
-        <v>5</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2">
-        <v>3</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G21" s="4">
-        <v>45991</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/アカウント更新・削除_結合テスト.xlsx
+++ b/アカウント更新・削除_結合テスト.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{70F8FCB8-F725-4146-BBCF-C72DF082692F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4304676-008A-4990-8760-858C7A619800}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet6" sheetId="9" r:id="rId1"/>
@@ -3465,7 +3465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3488,9 +3488,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5502,7 +5499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A77DA8-5F4F-404D-8533-BC9C291EE38F}">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
@@ -6543,8 +6540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C3A01A-A4F6-4174-8DBC-8BCF35A1EEEB}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8236,7 +8233,7 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="8">
+      <c r="A26" s="2">
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -8261,7 +8258,7 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="8"/>
+      <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -8655,7 +8652,7 @@
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="8">
+      <c r="A51" s="2">
         <v>16</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -8909,7 +8906,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="8"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>

--- a/アカウント更新・削除_結合テスト.xlsx
+++ b/アカウント更新・削除_結合テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{70F8FCB8-F725-4146-BBCF-C72DF082692F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4304676-008A-4990-8760-858C7A619800}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{70F8FCB8-F725-4146-BBCF-C72DF082692F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A5E43AE-7413-4234-B432-D1467BA2C165}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="3" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet6" sheetId="9" r:id="rId1"/>
@@ -3194,38 +3194,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「ユーザー情報が見つかりません」の表示</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除されたユーザーでアクセスした場合、「ユーザー情報が見つかりません」が表示されるか</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2.アカウント削除画面の「削除」を押す</t>
     <rPh sb="7" eb="9">
       <t>サクジョ</t>
@@ -3375,6 +3343,32 @@
   <si>
     <t>表示</t>
     <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「指定されたアカウントは存在しません。」の表示</t>
+    <rPh sb="1" eb="3">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除されたユーザーでアクセスした場合、「指定されたアカウントは存在しません。」が表示されるか</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -5499,7 +5493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A77DA8-5F4F-404D-8533-BC9C291EE38F}">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
@@ -6314,7 +6308,7 @@
         <v>163</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G51" s="3">
         <v>46002</v>
@@ -6333,7 +6327,7 @@
         <v>164</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -6499,7 +6493,7 @@
         <v>192</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>193</v>
@@ -6540,7 +6534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C3A01A-A4F6-4174-8DBC-8BCF35A1EEEB}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -6720,7 +6714,7 @@
         <v>198</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G12" s="3">
         <v>46002</v>
@@ -6758,7 +6752,7 @@
         <v>199</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G14" s="3">
         <v>46002</v>
@@ -6796,7 +6790,7 @@
         <v>200</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G16" s="3">
         <v>46002</v>
@@ -7211,7 +7205,7 @@
         <v>192</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>193</v>
@@ -7252,7 +7246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E2BC3D-0A3A-44E9-99FA-65D95F3DCD82}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -7849,8 +7843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="D17" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8576,7 +8570,7 @@
         <v>192</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>193</v>
@@ -8660,19 +8654,19 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>167</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="G51" s="3">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I51" s="2"/>
     </row>
@@ -8704,7 +8698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE28EAC-04E1-4652-A59F-FBA9EA2DB96E}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -8824,7 +8818,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -8837,7 +8831,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -8856,7 +8850,7 @@
         <v>224</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>225</v>
@@ -8911,7 +8905,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
@@ -8924,7 +8918,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -8943,7 +8937,7 @@
         <v>192</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>193</v>
